--- a/PythonResources/Data/Consumption/Sympheny/futu_CE_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/futu_CE_hea.xlsx
@@ -359,7 +359,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>580.3685778610621</v>
+        <v>580.368577861062</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -471,7 +471,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>117.1061169201048</v>
+        <v>117.1061169201047</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -495,7 +495,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>591.4926752755308</v>
+        <v>591.4926752755307</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -591,7 +591,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>899.530851881311</v>
+        <v>899.5308518813108</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -631,7 +631,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>510.0347523637646</v>
+        <v>510.0347523637644</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -759,7 +759,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>491.5362637311109</v>
+        <v>491.5362637311108</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -927,7 +927,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>292.6428618738611</v>
+        <v>292.642861873861</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -975,7 +975,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>529.8818161729495</v>
+        <v>529.8818161729494</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1071,7 +1071,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>326.6306619126637</v>
+        <v>326.6306619126636</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1119,7 +1119,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>287.691133604639</v>
+        <v>287.6911336046389</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1167,7 +1167,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>536.0008463891597</v>
+        <v>536.0008463891596</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1343,7 +1343,7 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>480.3081817814148</v>
+        <v>480.3081817814147</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1359,7 +1359,7 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>533.281909135083</v>
+        <v>533.2819091350829</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1655,7 +1655,7 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>519.9531555251805</v>
+        <v>519.9531555251804</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1879,7 +1879,7 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <v>366.2499978019673</v>
+        <v>366.2499978019672</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1911,7 +1911,7 @@
         <v>196</v>
       </c>
       <c r="B196">
-        <v>606.649781867226</v>
+        <v>606.6497818672259</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1951,7 +1951,7 @@
         <v>201</v>
       </c>
       <c r="B201">
-        <v>447.0120821466399</v>
+        <v>447.0120821466398</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -1967,7 +1967,7 @@
         <v>203</v>
       </c>
       <c r="B203">
-        <v>457.341165754532</v>
+        <v>457.3411657545319</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2023,7 +2023,7 @@
         <v>210</v>
       </c>
       <c r="B210">
-        <v>285.3575554592981</v>
+        <v>285.357555459298</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2031,7 +2031,7 @@
         <v>211</v>
       </c>
       <c r="B211">
-        <v>621.1146253584992</v>
+        <v>621.1146253584991</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2055,7 +2055,7 @@
         <v>214</v>
       </c>
       <c r="B214">
-        <v>395.2130362687134</v>
+        <v>395.2130362687133</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2119,7 +2119,7 @@
         <v>222</v>
       </c>
       <c r="B222">
-        <v>944.7833648189321</v>
+        <v>944.783364818932</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2143,7 +2143,7 @@
         <v>225</v>
       </c>
       <c r="B225">
-        <v>379.4197017591883</v>
+        <v>379.4197017591882</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2311,7 +2311,7 @@
         <v>246</v>
       </c>
       <c r="B246">
-        <v>958.8399310462462</v>
+        <v>958.8399310462461</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2383,7 +2383,7 @@
         <v>255</v>
       </c>
       <c r="B255">
-        <v>208.4146556620446</v>
+        <v>208.4146556620445</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2471,7 +2471,7 @@
         <v>266</v>
       </c>
       <c r="B266">
-        <v>440.4778581899582</v>
+        <v>440.4778581899581</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2647,7 +2647,7 @@
         <v>288</v>
       </c>
       <c r="B288">
-        <v>180.9608744301967</v>
+        <v>180.9608744301966</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2695,7 +2695,7 @@
         <v>294</v>
       </c>
       <c r="B294">
-        <v>285.9382757224055</v>
+        <v>285.9382757224054</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -2839,7 +2839,7 @@
         <v>312</v>
       </c>
       <c r="B312">
-        <v>166.3009335484866</v>
+        <v>166.3009335484865</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -3031,7 +3031,7 @@
         <v>336</v>
       </c>
       <c r="B336">
-        <v>162.5871959607778</v>
+        <v>162.5871959607777</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3063,7 +3063,7 @@
         <v>340</v>
       </c>
       <c r="B340">
-        <v>271.9194277377671</v>
+        <v>271.919427737767</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3071,7 +3071,7 @@
         <v>341</v>
       </c>
       <c r="B341">
-        <v>288.9056492959555</v>
+        <v>288.9056492959554</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3135,7 +3135,7 @@
         <v>349</v>
       </c>
       <c r="B349">
-        <v>8.27682142185173</v>
+        <v>8.276821421851729</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -3151,7 +3151,7 @@
         <v>351</v>
       </c>
       <c r="B351">
-        <v>4.737812787392787</v>
+        <v>4.737812787392786</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3175,7 +3175,7 @@
         <v>354</v>
       </c>
       <c r="B354">
-        <v>5.474588396379753</v>
+        <v>5.474588396379752</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -3191,7 +3191,7 @@
         <v>356</v>
       </c>
       <c r="B356">
-        <v>93.74721216174474</v>
+        <v>93.74721216174471</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3351,7 +3351,7 @@
         <v>376</v>
       </c>
       <c r="B376">
-        <v>74.37391234010779</v>
+        <v>74.37391234010778</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -3631,7 +3631,7 @@
         <v>411</v>
       </c>
       <c r="B411">
-        <v>461.2160865520838</v>
+        <v>461.2160865520837</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -3639,7 +3639,7 @@
         <v>412</v>
       </c>
       <c r="B412">
-        <v>492.6836573624428</v>
+        <v>492.6836573624427</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -3663,7 +3663,7 @@
         <v>415</v>
       </c>
       <c r="B415">
-        <v>802.9448950248847</v>
+        <v>802.9448950248845</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -3679,7 +3679,7 @@
         <v>417</v>
       </c>
       <c r="B417">
-        <v>327.26375397038</v>
+        <v>327.2637539703799</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3783,7 +3783,7 @@
         <v>430</v>
       </c>
       <c r="B430">
-        <v>405.7123062287561</v>
+        <v>405.712306228756</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -3799,7 +3799,7 @@
         <v>432</v>
       </c>
       <c r="B432">
-        <v>457.1682538417218</v>
+        <v>457.1682538417217</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -3855,7 +3855,7 @@
         <v>439</v>
       </c>
       <c r="B439">
-        <v>901.5908482120616</v>
+        <v>901.5908482120615</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -3879,7 +3879,7 @@
         <v>442</v>
       </c>
       <c r="B442">
-        <v>534.7236428026736</v>
+        <v>534.7236428026735</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -4023,7 +4023,7 @@
         <v>460</v>
       </c>
       <c r="B460">
-        <v>623.9908831461295</v>
+        <v>623.9908831461294</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -4183,7 +4183,7 @@
         <v>480</v>
       </c>
       <c r="B480">
-        <v>520.2233670228262</v>
+        <v>520.2233670228261</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -4199,7 +4199,7 @@
         <v>482</v>
       </c>
       <c r="B482">
-        <v>561.6598898873494</v>
+        <v>561.6598898873493</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -4207,7 +4207,7 @@
         <v>483</v>
       </c>
       <c r="B483">
-        <v>594.337398619401</v>
+        <v>594.3373986194009</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4215,7 +4215,7 @@
         <v>484</v>
       </c>
       <c r="B484">
-        <v>615.4331208959065</v>
+        <v>615.4331208959064</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -4303,7 +4303,7 @@
         <v>495</v>
       </c>
       <c r="B495">
-        <v>65.70169852251168</v>
+        <v>65.70169852251166</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -4447,7 +4447,7 @@
         <v>513</v>
       </c>
       <c r="B513">
-        <v>385.1757928011203</v>
+        <v>385.1757928011202</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -4471,7 +4471,7 @@
         <v>516</v>
       </c>
       <c r="B516">
-        <v>458.7464413849132</v>
+        <v>458.7464413849131</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -4495,7 +4495,7 @@
         <v>519</v>
       </c>
       <c r="B519">
-        <v>353.9333357169778</v>
+        <v>353.9333357169777</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -4679,7 +4679,7 @@
         <v>542</v>
       </c>
       <c r="B542">
-        <v>258.1165438015183</v>
+        <v>258.1165438015182</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -4775,7 +4775,7 @@
         <v>554</v>
       </c>
       <c r="B554">
-        <v>435.6487479126016</v>
+        <v>435.6487479126015</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -4783,7 +4783,7 @@
         <v>555</v>
       </c>
       <c r="B555">
-        <v>470.7221446235239</v>
+        <v>470.7221446235238</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -4879,7 +4879,7 @@
         <v>567</v>
       </c>
       <c r="B567">
-        <v>181.821858527576</v>
+        <v>181.8218585275759</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -5023,7 +5023,7 @@
         <v>585</v>
       </c>
       <c r="B585">
-        <v>254.7416256416059</v>
+        <v>254.7416256416058</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -5191,7 +5191,7 @@
         <v>606</v>
       </c>
       <c r="B606">
-        <v>478.3876520965424</v>
+        <v>478.3876520965423</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -5207,7 +5207,7 @@
         <v>608</v>
       </c>
       <c r="B608">
-        <v>110.4124974869159</v>
+        <v>110.4124974869158</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -5255,7 +5255,7 @@
         <v>614</v>
       </c>
       <c r="B614">
-        <v>75.77784863584225</v>
+        <v>75.77784863584223</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -5407,7 +5407,7 @@
         <v>633</v>
       </c>
       <c r="B633">
-        <v>252.9100488783879</v>
+        <v>252.9100488783878</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -5599,7 +5599,7 @@
         <v>657</v>
       </c>
       <c r="B657">
-        <v>208.6382688645432</v>
+        <v>208.6382688645431</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -5759,7 +5759,7 @@
         <v>677</v>
       </c>
       <c r="B677">
-        <v>615.7618879870768</v>
+        <v>615.7618879870766</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -5807,7 +5807,7 @@
         <v>683</v>
       </c>
       <c r="B683">
-        <v>282.6609502183673</v>
+        <v>282.6609502183672</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -5815,7 +5815,7 @@
         <v>684</v>
       </c>
       <c r="B684">
-        <v>233.6279088033265</v>
+        <v>233.6279088033264</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -5935,7 +5935,7 @@
         <v>699</v>
       </c>
       <c r="B699">
-        <v>332.1467863881398</v>
+        <v>332.1467863881397</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -5943,7 +5943,7 @@
         <v>700</v>
       </c>
       <c r="B700">
-        <v>355.1968235788546</v>
+        <v>355.1968235788545</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -6031,7 +6031,7 @@
         <v>711</v>
       </c>
       <c r="B711">
-        <v>65.16564961247218</v>
+        <v>65.16564961247217</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -6071,7 +6071,7 @@
         <v>716</v>
       </c>
       <c r="B716">
-        <v>56.34290718264364</v>
+        <v>56.34290718264363</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -6127,7 +6127,7 @@
         <v>723</v>
       </c>
       <c r="B723">
-        <v>215.3453754269313</v>
+        <v>215.3453754269312</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -6383,7 +6383,7 @@
         <v>755</v>
       </c>
       <c r="B755">
-        <v>155.3829236884046</v>
+        <v>155.3829236884045</v>
       </c>
     </row>
     <row r="756" spans="1:2">
@@ -6399,7 +6399,7 @@
         <v>757</v>
       </c>
       <c r="B757">
-        <v>96.62225077385408</v>
+        <v>96.62225077385406</v>
       </c>
     </row>
     <row r="758" spans="1:2">
@@ -6511,7 +6511,7 @@
         <v>771</v>
       </c>
       <c r="B771">
-        <v>329.1712361326112</v>
+        <v>329.1712361326111</v>
       </c>
     </row>
     <row r="772" spans="1:2">
@@ -6591,7 +6591,7 @@
         <v>781</v>
       </c>
       <c r="B781">
-        <v>313.7663379777279</v>
+        <v>313.7663379777278</v>
       </c>
     </row>
     <row r="782" spans="1:2">
@@ -6695,7 +6695,7 @@
         <v>794</v>
       </c>
       <c r="B794">
-        <v>421.5897228192731</v>
+        <v>421.589722819273</v>
       </c>
     </row>
     <row r="795" spans="1:2">
@@ -6751,7 +6751,7 @@
         <v>801</v>
       </c>
       <c r="B801">
-        <v>238.2490646637802</v>
+        <v>238.2490646637801</v>
       </c>
     </row>
     <row r="802" spans="1:2">
@@ -6799,7 +6799,7 @@
         <v>807</v>
       </c>
       <c r="B807">
-        <v>164.7776757239295</v>
+        <v>164.7776757239294</v>
       </c>
     </row>
     <row r="808" spans="1:2">
@@ -6831,7 +6831,7 @@
         <v>811</v>
       </c>
       <c r="B811">
-        <v>442.6081915699875</v>
+        <v>442.6081915699874</v>
       </c>
     </row>
     <row r="812" spans="1:2">
@@ -6839,7 +6839,7 @@
         <v>812</v>
       </c>
       <c r="B812">
-        <v>378.4073464703404</v>
+        <v>378.4073464703403</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -6895,7 +6895,7 @@
         <v>819</v>
       </c>
       <c r="B819">
-        <v>540.4370011564585</v>
+        <v>540.4370011564583</v>
       </c>
     </row>
     <row r="820" spans="1:2">
@@ -7063,7 +7063,7 @@
         <v>840</v>
       </c>
       <c r="B840">
-        <v>278.8008236468471</v>
+        <v>278.800823646847</v>
       </c>
     </row>
     <row r="841" spans="1:2">
@@ -7183,7 +7183,7 @@
         <v>855</v>
       </c>
       <c r="B855">
-        <v>69.24025436221588</v>
+        <v>69.24025436221586</v>
       </c>
     </row>
     <row r="856" spans="1:2">
@@ -7215,7 +7215,7 @@
         <v>859</v>
       </c>
       <c r="B859">
-        <v>82.18534281398607</v>
+        <v>82.18534281398604</v>
       </c>
     </row>
     <row r="860" spans="1:2">
@@ -7423,7 +7423,7 @@
         <v>885</v>
       </c>
       <c r="B885">
-        <v>35.73391728714691</v>
+        <v>35.73391728714689</v>
       </c>
     </row>
     <row r="886" spans="1:2">
@@ -7431,7 +7431,7 @@
         <v>886</v>
       </c>
       <c r="B886">
-        <v>47.28011905717875</v>
+        <v>47.28011905717874</v>
       </c>
     </row>
     <row r="887" spans="1:2">
@@ -7471,7 +7471,7 @@
         <v>891</v>
       </c>
       <c r="B891">
-        <v>256.9216052555844</v>
+        <v>256.9216052555843</v>
       </c>
     </row>
     <row r="892" spans="1:2">
@@ -7631,7 +7631,7 @@
         <v>911</v>
       </c>
       <c r="B911">
-        <v>239.5600769252863</v>
+        <v>239.5600769252862</v>
       </c>
     </row>
     <row r="912" spans="1:2">
@@ -7647,7 +7647,7 @@
         <v>913</v>
       </c>
       <c r="B913">
-        <v>344.6574028865153</v>
+        <v>344.6574028865152</v>
       </c>
     </row>
     <row r="914" spans="1:2">
@@ -7783,7 +7783,7 @@
         <v>930</v>
       </c>
       <c r="B930">
-        <v>125.9852608713237</v>
+        <v>125.9852608713236</v>
       </c>
     </row>
     <row r="931" spans="1:2">
@@ -7847,7 +7847,7 @@
         <v>938</v>
       </c>
       <c r="B938">
-        <v>348.1431898203534</v>
+        <v>348.1431898203533</v>
       </c>
     </row>
     <row r="939" spans="1:2">
@@ -7959,7 +7959,7 @@
         <v>952</v>
       </c>
       <c r="B952">
-        <v>143.2940657217666</v>
+        <v>143.2940657217665</v>
       </c>
     </row>
     <row r="953" spans="1:2">
@@ -7999,7 +7999,7 @@
         <v>957</v>
       </c>
       <c r="B957">
-        <v>214.659530582256</v>
+        <v>214.6595305822559</v>
       </c>
     </row>
     <row r="958" spans="1:2">
@@ -8007,7 +8007,7 @@
         <v>958</v>
       </c>
       <c r="B958">
-        <v>229.2655756999563</v>
+        <v>229.2655756999562</v>
       </c>
     </row>
     <row r="959" spans="1:2">
@@ -8031,7 +8031,7 @@
         <v>961</v>
       </c>
       <c r="B961">
-        <v>364.9818794176796</v>
+        <v>364.9818794176795</v>
       </c>
     </row>
     <row r="962" spans="1:2">
@@ -8047,7 +8047,7 @@
         <v>963</v>
       </c>
       <c r="B963">
-        <v>494.2414471613433</v>
+        <v>494.2414471613432</v>
       </c>
     </row>
     <row r="964" spans="1:2">
@@ -8191,7 +8191,7 @@
         <v>981</v>
       </c>
       <c r="B981">
-        <v>508.4178794434699</v>
+        <v>508.4178794434698</v>
       </c>
     </row>
     <row r="982" spans="1:2">
@@ -8383,7 +8383,7 @@
         <v>1005</v>
       </c>
       <c r="B1005">
-        <v>536.4026467831645</v>
+        <v>536.4026467831644</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
@@ -8439,7 +8439,7 @@
         <v>1012</v>
       </c>
       <c r="B1012">
-        <v>684.810040144871</v>
+        <v>684.8100401448709</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
@@ -8495,7 +8495,7 @@
         <v>1019</v>
       </c>
       <c r="B1019">
-        <v>411.147250026523</v>
+        <v>411.1472500265229</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
@@ -8639,7 +8639,7 @@
         <v>1037</v>
       </c>
       <c r="B1037">
-        <v>467.2727571126877</v>
+        <v>467.2727571126876</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
@@ -8719,7 +8719,7 @@
         <v>1047</v>
       </c>
       <c r="B1047">
-        <v>71.90058913140193</v>
+        <v>71.90058913140192</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
@@ -8727,7 +8727,7 @@
         <v>1048</v>
       </c>
       <c r="B1048">
-        <v>62.34105145682683</v>
+        <v>62.34105145682682</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
@@ -8751,7 +8751,7 @@
         <v>1051</v>
       </c>
       <c r="B1051">
-        <v>116.1482728444479</v>
+        <v>116.1482728444478</v>
       </c>
     </row>
     <row r="1052" spans="1:2">
@@ -8775,7 +8775,7 @@
         <v>1054</v>
       </c>
       <c r="B1054">
-        <v>93.41844507057445</v>
+        <v>93.41844507057444</v>
       </c>
     </row>
     <row r="1055" spans="1:2">
@@ -8783,7 +8783,7 @@
         <v>1055</v>
       </c>
       <c r="B1055">
-        <v>104.7210520546918</v>
+        <v>104.7210520546917</v>
       </c>
     </row>
     <row r="1056" spans="1:2">
@@ -8831,7 +8831,7 @@
         <v>1061</v>
       </c>
       <c r="B1061">
-        <v>347.8961309347619</v>
+        <v>347.8961309347618</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
@@ -8847,7 +8847,7 @@
         <v>1063</v>
       </c>
       <c r="B1063">
-        <v>448.1525094793828</v>
+        <v>448.1525094793827</v>
       </c>
     </row>
     <row r="1064" spans="1:2">
@@ -8967,7 +8967,7 @@
         <v>1078</v>
       </c>
       <c r="B1078">
-        <v>33.13782075892505</v>
+        <v>33.13782075892503</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
@@ -9071,7 +9071,7 @@
         <v>1091</v>
       </c>
       <c r="B1091">
-        <v>223.3949524961154</v>
+        <v>223.3949524961153</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
@@ -9127,7 +9127,7 @@
         <v>1098</v>
       </c>
       <c r="B1098">
-        <v>9.26029455983954</v>
+        <v>9.260294559839538</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
@@ -9223,7 +9223,7 @@
         <v>1110</v>
       </c>
       <c r="B1110">
-        <v>531.0388606335845</v>
+        <v>531.0388606335844</v>
       </c>
     </row>
     <row r="1111" spans="1:2">
@@ -9471,7 +9471,7 @@
         <v>1141</v>
       </c>
       <c r="B1141">
-        <v>48.80447531198878</v>
+        <v>48.80447531198877</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
@@ -9671,7 +9671,7 @@
         <v>1166</v>
       </c>
       <c r="B1166">
-        <v>2.205669693699735</v>
+        <v>2.205669693699734</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
@@ -9679,7 +9679,7 @@
         <v>1167</v>
       </c>
       <c r="B1167">
-        <v>0.9028932559078725</v>
+        <v>0.9028932559078724</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
@@ -9775,7 +9775,7 @@
         <v>1179</v>
       </c>
       <c r="B1179">
-        <v>193.6487402927546</v>
+        <v>193.6487402927545</v>
       </c>
     </row>
     <row r="1180" spans="1:2">
@@ -9799,7 +9799,7 @@
         <v>1182</v>
       </c>
       <c r="B1182">
-        <v>274.4170670505507</v>
+        <v>274.4170670505506</v>
       </c>
     </row>
     <row r="1183" spans="1:2">
@@ -9975,7 +9975,7 @@
         <v>1204</v>
       </c>
       <c r="B1204">
-        <v>354.1457799821931</v>
+        <v>354.145779982193</v>
       </c>
     </row>
     <row r="1205" spans="1:2">
@@ -9983,7 +9983,7 @@
         <v>1205</v>
       </c>
       <c r="B1205">
-        <v>422.0129760133079</v>
+        <v>422.0129760133078</v>
       </c>
     </row>
     <row r="1206" spans="1:2">
@@ -9991,7 +9991,7 @@
         <v>1206</v>
       </c>
       <c r="B1206">
-        <v>684.4325353399713</v>
+        <v>684.4325353399711</v>
       </c>
     </row>
     <row r="1207" spans="1:2">
@@ -10063,7 +10063,7 @@
         <v>1215</v>
       </c>
       <c r="B1215">
-        <v>109.6393702255065</v>
+        <v>109.6393702255064</v>
       </c>
     </row>
     <row r="1216" spans="1:2">
@@ -10215,7 +10215,7 @@
         <v>1234</v>
       </c>
       <c r="B1234">
-        <v>277.6583448168336</v>
+        <v>277.6583448168335</v>
       </c>
     </row>
     <row r="1235" spans="1:2">
@@ -10407,7 +10407,7 @@
         <v>1258</v>
       </c>
       <c r="B1258">
-        <v>341.1825181953155</v>
+        <v>341.1825181953154</v>
       </c>
     </row>
     <row r="1259" spans="1:2">
@@ -10863,7 +10863,7 @@
         <v>1315</v>
       </c>
       <c r="B1315">
-        <v>51.41289547738635</v>
+        <v>51.41289547738634</v>
       </c>
     </row>
     <row r="1316" spans="1:2">
@@ -11127,7 +11127,7 @@
         <v>1348</v>
       </c>
       <c r="B1348">
-        <v>203.6618053996581</v>
+        <v>203.661805399658</v>
       </c>
     </row>
     <row r="1349" spans="1:2">
@@ -11151,7 +11151,7 @@
         <v>1351</v>
       </c>
       <c r="B1351">
-        <v>394.3110808401292</v>
+        <v>394.3110808401291</v>
       </c>
     </row>
     <row r="1352" spans="1:2">
@@ -11215,7 +11215,7 @@
         <v>1359</v>
       </c>
       <c r="B1359">
-        <v>57.21200348637308</v>
+        <v>57.21200348637307</v>
       </c>
     </row>
     <row r="1360" spans="1:2">
@@ -11231,7 +11231,7 @@
         <v>1361</v>
       </c>
       <c r="B1361">
-        <v>8.187294374032501</v>
+        <v>8.187294374032499</v>
       </c>
     </row>
     <row r="1362" spans="1:2">
@@ -11239,7 +11239,7 @@
         <v>1362</v>
       </c>
       <c r="B1362">
-        <v>6.460480249649634</v>
+        <v>6.460480249649633</v>
       </c>
     </row>
     <row r="1363" spans="1:2">
@@ -11479,7 +11479,7 @@
         <v>1392</v>
       </c>
       <c r="B1392">
-        <v>80.77524323430855</v>
+        <v>80.77524323430853</v>
       </c>
     </row>
     <row r="1393" spans="1:2">
@@ -11503,7 +11503,7 @@
         <v>1395</v>
       </c>
       <c r="B1395">
-        <v>198.8802927896905</v>
+        <v>198.8802927896904</v>
       </c>
     </row>
     <row r="1396" spans="1:2">
@@ -11591,7 +11591,7 @@
         <v>1406</v>
       </c>
       <c r="B1406">
-        <v>51.24985419715828</v>
+        <v>51.24985419715826</v>
       </c>
     </row>
     <row r="1407" spans="1:2">
@@ -11607,7 +11607,7 @@
         <v>1408</v>
       </c>
       <c r="B1408">
-        <v>34.06131661577977</v>
+        <v>34.06131661577976</v>
       </c>
     </row>
     <row r="1409" spans="1:2">
@@ -11663,7 +11663,7 @@
         <v>1415</v>
       </c>
       <c r="B1415">
-        <v>52.28651093653196</v>
+        <v>52.28651093653195</v>
       </c>
     </row>
     <row r="1416" spans="1:2">
@@ -11719,7 +11719,7 @@
         <v>1422</v>
       </c>
       <c r="B1422">
-        <v>825.6998096796675</v>
+        <v>825.6998096796674</v>
       </c>
     </row>
     <row r="1423" spans="1:2">
@@ -11727,7 +11727,7 @@
         <v>1423</v>
       </c>
       <c r="B1423">
-        <v>776.4284135888835</v>
+        <v>776.4284135888834</v>
       </c>
     </row>
     <row r="1424" spans="1:2">
@@ -11815,7 +11815,7 @@
         <v>1434</v>
       </c>
       <c r="B1434">
-        <v>182.6459742882917</v>
+        <v>182.6459742882916</v>
       </c>
     </row>
     <row r="1435" spans="1:2">
@@ -11823,7 +11823,7 @@
         <v>1435</v>
       </c>
       <c r="B1435">
-        <v>484.2229895473284</v>
+        <v>484.2229895473283</v>
       </c>
     </row>
     <row r="1436" spans="1:2">
@@ -11911,7 +11911,7 @@
         <v>1446</v>
       </c>
       <c r="B1446">
-        <v>915.9777054999471</v>
+        <v>915.9777054999469</v>
       </c>
     </row>
     <row r="1447" spans="1:2">
@@ -12063,7 +12063,7 @@
         <v>1465</v>
       </c>
       <c r="B1465">
-        <v>349.2058654065394</v>
+        <v>349.2058654065393</v>
       </c>
     </row>
     <row r="1466" spans="1:2">
@@ -12071,7 +12071,7 @@
         <v>1466</v>
       </c>
       <c r="B1466">
-        <v>391.066374142694</v>
+        <v>391.0663741426939</v>
       </c>
     </row>
     <row r="1467" spans="1:2">
@@ -12223,7 +12223,7 @@
         <v>1485</v>
       </c>
       <c r="B1485">
-        <v>206.2847618885733</v>
+        <v>206.2847618885732</v>
       </c>
     </row>
     <row r="1486" spans="1:2">
@@ -12271,7 +12271,7 @@
         <v>1491</v>
       </c>
       <c r="B1491">
-        <v>459.2375405243979</v>
+        <v>459.2375405243978</v>
       </c>
     </row>
     <row r="1492" spans="1:2">
@@ -12279,7 +12279,7 @@
         <v>1492</v>
       </c>
       <c r="B1492">
-        <v>488.0212312383248</v>
+        <v>488.0212312383247</v>
       </c>
     </row>
     <row r="1493" spans="1:2">
@@ -12295,7 +12295,7 @@
         <v>1494</v>
       </c>
       <c r="B1494">
-        <v>539.0564343453468</v>
+        <v>539.0564343453467</v>
       </c>
     </row>
     <row r="1495" spans="1:2">
@@ -12335,7 +12335,7 @@
         <v>1499</v>
       </c>
       <c r="B1499">
-        <v>60.97829457273467</v>
+        <v>60.97829457273466</v>
       </c>
     </row>
     <row r="1500" spans="1:2">
@@ -12663,7 +12663,7 @@
         <v>1540</v>
       </c>
       <c r="B1540">
-        <v>251.9522927240426</v>
+        <v>251.9522927240425</v>
       </c>
     </row>
     <row r="1541" spans="1:2">
@@ -12695,7 +12695,7 @@
         <v>1544</v>
       </c>
       <c r="B1544">
-        <v>98.40497845634796</v>
+        <v>98.40497845634795</v>
       </c>
     </row>
     <row r="1545" spans="1:2">
@@ -12743,7 +12743,7 @@
         <v>1550</v>
       </c>
       <c r="B1550">
-        <v>71.74454345686668</v>
+        <v>71.74454345686667</v>
       </c>
     </row>
     <row r="1551" spans="1:2">
@@ -12759,7 +12759,7 @@
         <v>1552</v>
       </c>
       <c r="B1552">
-        <v>56.07086604250351</v>
+        <v>56.0708660425035</v>
       </c>
     </row>
     <row r="1553" spans="1:2">
@@ -12895,7 +12895,7 @@
         <v>1569</v>
       </c>
       <c r="B1569">
-        <v>93.39757841262177</v>
+        <v>93.39757841262175</v>
       </c>
     </row>
     <row r="1570" spans="1:2">
@@ -12951,7 +12951,7 @@
         <v>1576</v>
       </c>
       <c r="B1576">
-        <v>55.45237068093884</v>
+        <v>55.45237068093883</v>
       </c>
     </row>
     <row r="1577" spans="1:2">
@@ -13039,7 +13039,7 @@
         <v>1587</v>
       </c>
       <c r="B1587">
-        <v>249.9582373769908</v>
+        <v>249.9582373769907</v>
       </c>
     </row>
     <row r="1588" spans="1:2">
@@ -13063,7 +13063,7 @@
         <v>1590</v>
       </c>
       <c r="B1590">
-        <v>459.7932911350114</v>
+        <v>459.7932911350113</v>
       </c>
     </row>
     <row r="1591" spans="1:2">
@@ -13143,7 +13143,7 @@
         <v>1600</v>
       </c>
       <c r="B1600">
-        <v>72.79650436587927</v>
+        <v>72.79650436587926</v>
       </c>
     </row>
     <row r="1601" spans="1:2">
@@ -13255,7 +13255,7 @@
         <v>1614</v>
       </c>
       <c r="B1614">
-        <v>552.5939424560878</v>
+        <v>552.5939424560877</v>
       </c>
     </row>
     <row r="1615" spans="1:2">
@@ -13279,7 +13279,7 @@
         <v>1617</v>
       </c>
       <c r="B1617">
-        <v>83.62576938474427</v>
+        <v>83.62576938474426</v>
       </c>
     </row>
     <row r="1618" spans="1:2">
@@ -13311,7 +13311,7 @@
         <v>1621</v>
       </c>
       <c r="B1621">
-        <v>66.91813119149204</v>
+        <v>66.91813119149202</v>
       </c>
     </row>
     <row r="1622" spans="1:2">
@@ -13367,7 +13367,7 @@
         <v>1628</v>
       </c>
       <c r="B1628">
-        <v>40.5345615745183</v>
+        <v>40.53456157451829</v>
       </c>
     </row>
     <row r="1629" spans="1:2">
@@ -13431,7 +13431,7 @@
         <v>1636</v>
       </c>
       <c r="B1636">
-        <v>238.016471764657</v>
+        <v>238.0164717646569</v>
       </c>
     </row>
     <row r="1637" spans="1:2">
@@ -13575,7 +13575,7 @@
         <v>1654</v>
       </c>
       <c r="B1654">
-        <v>41.52318397065538</v>
+        <v>41.52318397065537</v>
       </c>
     </row>
     <row r="1655" spans="1:2">
@@ -13623,7 +13623,7 @@
         <v>1660</v>
       </c>
       <c r="B1660">
-        <v>167.9846852798038</v>
+        <v>167.9846852798037</v>
       </c>
     </row>
     <row r="1661" spans="1:2">
@@ -13655,7 +13655,7 @@
         <v>1664</v>
       </c>
       <c r="B1664">
-        <v>22.65748025726949</v>
+        <v>22.65748025726948</v>
       </c>
     </row>
     <row r="1665" spans="1:2">
@@ -13679,7 +13679,7 @@
         <v>1667</v>
       </c>
       <c r="B1667">
-        <v>7.94583285220838</v>
+        <v>7.945832852208378</v>
       </c>
     </row>
     <row r="1668" spans="1:2">
@@ -13695,7 +13695,7 @@
         <v>1669</v>
       </c>
       <c r="B1669">
-        <v>4.696537248449801</v>
+        <v>4.6965372484498</v>
       </c>
     </row>
     <row r="1670" spans="1:2">
@@ -13783,7 +13783,7 @@
         <v>1680</v>
       </c>
       <c r="B1680">
-        <v>89.54495445969131</v>
+        <v>89.5449544596913</v>
       </c>
     </row>
     <row r="1681" spans="1:2">
@@ -13839,7 +13839,7 @@
         <v>1687</v>
       </c>
       <c r="B1687">
-        <v>85.91884218183185</v>
+        <v>85.91884218183183</v>
       </c>
     </row>
     <row r="1688" spans="1:2">
@@ -13871,7 +13871,7 @@
         <v>1691</v>
       </c>
       <c r="B1691">
-        <v>63.65528456904784</v>
+        <v>63.65528456904782</v>
       </c>
     </row>
     <row r="1692" spans="1:2">
@@ -13887,7 +13887,7 @@
         <v>1693</v>
       </c>
       <c r="B1693">
-        <v>41.59548400975106</v>
+        <v>41.59548400975105</v>
       </c>
     </row>
     <row r="1694" spans="1:2">
@@ -13991,7 +13991,7 @@
         <v>1706</v>
       </c>
       <c r="B1706">
-        <v>90.48184395608391</v>
+        <v>90.48184395608388</v>
       </c>
     </row>
     <row r="1707" spans="1:2">
@@ -14031,7 +14031,7 @@
         <v>1711</v>
       </c>
       <c r="B1711">
-        <v>33.3382168737409</v>
+        <v>33.33821687374089</v>
       </c>
     </row>
     <row r="1712" spans="1:2">
@@ -14055,7 +14055,7 @@
         <v>1714</v>
       </c>
       <c r="B1714">
-        <v>73.05610083050472</v>
+        <v>73.0561008305047</v>
       </c>
     </row>
     <row r="1715" spans="1:2">
@@ -14119,7 +14119,7 @@
         <v>1722</v>
       </c>
       <c r="B1722">
-        <v>5.294665931253741</v>
+        <v>5.29466593125374</v>
       </c>
     </row>
     <row r="1723" spans="1:2">
@@ -14127,7 +14127,7 @@
         <v>1723</v>
       </c>
       <c r="B1723">
-        <v>6.089681496256604</v>
+        <v>6.089681496256603</v>
       </c>
     </row>
     <row r="1724" spans="1:2">
@@ -14263,7 +14263,7 @@
         <v>1740</v>
       </c>
       <c r="B1740">
-        <v>27.75405771506579</v>
+        <v>27.75405771506578</v>
       </c>
     </row>
     <row r="1741" spans="1:2">
@@ -14439,7 +14439,7 @@
         <v>1762</v>
       </c>
       <c r="B1762">
-        <v>72.00220067042932</v>
+        <v>72.0022006704293</v>
       </c>
     </row>
     <row r="1763" spans="1:2">
@@ -14455,7 +14455,7 @@
         <v>1764</v>
       </c>
       <c r="B1764">
-        <v>41.57442363184182</v>
+        <v>41.57442363184181</v>
       </c>
     </row>
     <row r="1765" spans="1:2">
@@ -14639,7 +14639,7 @@
         <v>1787</v>
       </c>
       <c r="B1787">
-        <v>61.26410624176837</v>
+        <v>61.26410624176836</v>
       </c>
     </row>
     <row r="1788" spans="1:2">
@@ -14687,7 +14687,7 @@
         <v>1793</v>
       </c>
       <c r="B1793">
-        <v>0.6374391804327015</v>
+        <v>0.6374391804327014</v>
       </c>
     </row>
     <row r="1794" spans="1:2">
@@ -14783,7 +14783,7 @@
         <v>1805</v>
       </c>
       <c r="B1805">
-        <v>205.823321538201</v>
+        <v>205.8233215382009</v>
       </c>
     </row>
     <row r="1806" spans="1:2">
@@ -15135,7 +15135,7 @@
         <v>1849</v>
       </c>
       <c r="B1849">
-        <v>96.45741589886941</v>
+        <v>96.45741589886939</v>
       </c>
     </row>
     <row r="1850" spans="1:2">
@@ -15231,7 +15231,7 @@
         <v>1861</v>
       </c>
       <c r="B1861">
-        <v>50.75389212992895</v>
+        <v>50.75389212992894</v>
       </c>
     </row>
     <row r="1862" spans="1:2">
@@ -15271,7 +15271,7 @@
         <v>1866</v>
       </c>
       <c r="B1866">
-        <v>4.807982932714993</v>
+        <v>4.807982932714992</v>
       </c>
     </row>
     <row r="1867" spans="1:2">
@@ -15287,7 +15287,7 @@
         <v>1868</v>
       </c>
       <c r="B1868">
-        <v>5.154577980635039</v>
+        <v>5.154577980635038</v>
       </c>
     </row>
     <row r="1869" spans="1:2">
@@ -15351,7 +15351,7 @@
         <v>1876</v>
       </c>
       <c r="B1876">
-        <v>134.4110239257335</v>
+        <v>134.4110239257334</v>
       </c>
     </row>
     <row r="1877" spans="1:2">
@@ -15391,7 +15391,7 @@
         <v>1881</v>
       </c>
       <c r="B1881">
-        <v>77.83638254210993</v>
+        <v>77.8363825421099</v>
       </c>
     </row>
     <row r="1882" spans="1:2">
@@ -15407,7 +15407,7 @@
         <v>1883</v>
       </c>
       <c r="B1883">
-        <v>65.19206117447634</v>
+        <v>65.19206117447632</v>
       </c>
     </row>
     <row r="1884" spans="1:2">
@@ -15455,7 +15455,7 @@
         <v>1889</v>
       </c>
       <c r="B1889">
-        <v>0.6378157767173817</v>
+        <v>0.6378157767173815</v>
       </c>
     </row>
     <row r="1890" spans="1:2">
@@ -15551,7 +15551,7 @@
         <v>1901</v>
       </c>
       <c r="B1901">
-        <v>263.3229508033371</v>
+        <v>263.322950803337</v>
       </c>
     </row>
     <row r="1902" spans="1:2">
@@ -15615,7 +15615,7 @@
         <v>1909</v>
       </c>
       <c r="B1909">
-        <v>53.95646488334894</v>
+        <v>53.95646488334893</v>
       </c>
     </row>
     <row r="1910" spans="1:2">
@@ -15663,7 +15663,7 @@
         <v>1915</v>
       </c>
       <c r="B1915">
-        <v>20.77321166586854</v>
+        <v>20.77321166586853</v>
       </c>
     </row>
     <row r="1916" spans="1:2">
@@ -15863,7 +15863,7 @@
         <v>1940</v>
       </c>
       <c r="B1940">
-        <v>9.4487272217862</v>
+        <v>9.448727221786198</v>
       </c>
     </row>
     <row r="1941" spans="1:2">
@@ -16063,7 +16063,7 @@
         <v>1965</v>
       </c>
       <c r="B1965">
-        <v>18.99780548406251</v>
+        <v>18.9978054840625</v>
       </c>
     </row>
     <row r="1966" spans="1:2">
@@ -16079,7 +16079,7 @@
         <v>1967</v>
       </c>
       <c r="B1967">
-        <v>52.42226144163989</v>
+        <v>52.42226144163988</v>
       </c>
     </row>
     <row r="1968" spans="1:2">
@@ -16111,7 +16111,7 @@
         <v>1971</v>
       </c>
       <c r="B1971">
-        <v>182.191186650497</v>
+        <v>182.1911866504969</v>
       </c>
     </row>
     <row r="1972" spans="1:2">
@@ -16167,7 +16167,7 @@
         <v>1978</v>
       </c>
       <c r="B1978">
-        <v>54.35483048478054</v>
+        <v>54.35483048478053</v>
       </c>
     </row>
     <row r="1979" spans="1:2">
@@ -16303,7 +16303,7 @@
         <v>1995</v>
       </c>
       <c r="B1995">
-        <v>79.13741573474961</v>
+        <v>79.1374157347496</v>
       </c>
     </row>
     <row r="1996" spans="1:2">
@@ -16367,7 +16367,7 @@
         <v>2003</v>
       </c>
       <c r="B2003">
-        <v>3.261297448933837</v>
+        <v>3.261297448933836</v>
       </c>
     </row>
     <row r="2004" spans="1:2">
@@ -16391,7 +16391,7 @@
         <v>2006</v>
       </c>
       <c r="B2006">
-        <v>5.994477955489543</v>
+        <v>5.994477955489542</v>
       </c>
     </row>
     <row r="2007" spans="1:2">
@@ -16447,7 +16447,7 @@
         <v>2013</v>
       </c>
       <c r="B2013">
-        <v>30.9124561638994</v>
+        <v>30.91245616389939</v>
       </c>
     </row>
     <row r="2014" spans="1:2">
@@ -16471,7 +16471,7 @@
         <v>2016</v>
       </c>
       <c r="B2016">
-        <v>81.14635909056541</v>
+        <v>81.1463590905654</v>
       </c>
     </row>
     <row r="2017" spans="1:2">
@@ -17063,7 +17063,7 @@
         <v>2090</v>
       </c>
       <c r="B2090">
-        <v>164.9168469542007</v>
+        <v>164.9168469542006</v>
       </c>
     </row>
     <row r="2091" spans="1:2">
@@ -17087,7 +17087,7 @@
         <v>2093</v>
       </c>
       <c r="B2093">
-        <v>338.5034972167044</v>
+        <v>338.5034972167043</v>
       </c>
     </row>
     <row r="2094" spans="1:2">
@@ -17095,7 +17095,7 @@
         <v>2094</v>
       </c>
       <c r="B2094">
-        <v>324.8637073134706</v>
+        <v>324.8637073134705</v>
       </c>
     </row>
     <row r="2095" spans="1:2">
@@ -17127,7 +17127,7 @@
         <v>2098</v>
       </c>
       <c r="B2098">
-        <v>127.4961593040384</v>
+        <v>127.4961593040383</v>
       </c>
     </row>
     <row r="2099" spans="1:2">
@@ -17159,7 +17159,7 @@
         <v>2102</v>
       </c>
       <c r="B2102">
-        <v>58.2003152272092</v>
+        <v>58.20031522720919</v>
       </c>
     </row>
     <row r="2103" spans="1:2">
@@ -17207,7 +17207,7 @@
         <v>2108</v>
       </c>
       <c r="B2108">
-        <v>48.90673952021927</v>
+        <v>48.90673952021926</v>
       </c>
     </row>
     <row r="2109" spans="1:2">
@@ -17247,7 +17247,7 @@
         <v>2113</v>
       </c>
       <c r="B2113">
-        <v>201.8453511020351</v>
+        <v>201.845351102035</v>
       </c>
     </row>
     <row r="2114" spans="1:2">
@@ -17311,7 +17311,7 @@
         <v>2121</v>
       </c>
       <c r="B2121">
-        <v>107.4739972720948</v>
+        <v>107.4739972720947</v>
       </c>
     </row>
     <row r="2122" spans="1:2">
@@ -17351,7 +17351,7 @@
         <v>2126</v>
       </c>
       <c r="B2126">
-        <v>27.86998940841267</v>
+        <v>27.86998940841266</v>
       </c>
     </row>
     <row r="2127" spans="1:2">
@@ -17479,7 +17479,7 @@
         <v>2142</v>
       </c>
       <c r="B2142">
-        <v>237.8517658409293</v>
+        <v>237.8517658409292</v>
       </c>
     </row>
     <row r="2143" spans="1:2">
@@ -17807,7 +17807,7 @@
         <v>2183</v>
       </c>
       <c r="B2183">
-        <v>7.808595597721315</v>
+        <v>7.808595597721313</v>
       </c>
     </row>
     <row r="2184" spans="1:2">
@@ -17967,7 +17967,7 @@
         <v>2203</v>
       </c>
       <c r="B2203">
-        <v>3.380610244239543</v>
+        <v>3.380610244239542</v>
       </c>
     </row>
     <row r="2204" spans="1:2">
@@ -18007,7 +18007,7 @@
         <v>2208</v>
       </c>
       <c r="B2208">
-        <v>70.91149782160298</v>
+        <v>70.91149782160296</v>
       </c>
     </row>
     <row r="2209" spans="1:2">
@@ -18215,7 +18215,7 @@
         <v>2234</v>
       </c>
       <c r="B2234">
-        <v>222.136417534792</v>
+        <v>222.1364175347919</v>
       </c>
     </row>
     <row r="2235" spans="1:2">
@@ -18255,7 +18255,7 @@
         <v>2239</v>
       </c>
       <c r="B2239">
-        <v>76.51177764583069</v>
+        <v>76.51177764583068</v>
       </c>
     </row>
     <row r="2240" spans="1:2">
@@ -18271,7 +18271,7 @@
         <v>2241</v>
       </c>
       <c r="B2241">
-        <v>104.6793246002072</v>
+        <v>104.6793246002071</v>
       </c>
     </row>
     <row r="2242" spans="1:2">
@@ -18383,7 +18383,7 @@
         <v>2255</v>
       </c>
       <c r="B2255">
-        <v>88.44532261553009</v>
+        <v>88.44532261553007</v>
       </c>
     </row>
     <row r="2256" spans="1:2">
@@ -18527,7 +18527,7 @@
         <v>2273</v>
       </c>
       <c r="B2273">
-        <v>5.885393984189404</v>
+        <v>5.885393984189403</v>
       </c>
     </row>
     <row r="2274" spans="1:2">
@@ -19399,7 +19399,7 @@
         <v>2382</v>
       </c>
       <c r="B2382">
-        <v>21.73551393816553</v>
+        <v>21.73551393816552</v>
       </c>
     </row>
     <row r="2383" spans="1:2">
@@ -19623,7 +19623,7 @@
         <v>2410</v>
       </c>
       <c r="B2410">
-        <v>48.49818676948381</v>
+        <v>48.4981867694838</v>
       </c>
     </row>
     <row r="2411" spans="1:2">
@@ -19663,7 +19663,7 @@
         <v>2415</v>
       </c>
       <c r="B2415">
-        <v>7.771788805975836</v>
+        <v>7.771788805975834</v>
       </c>
     </row>
     <row r="2416" spans="1:2">
@@ -19711,7 +19711,7 @@
         <v>2421</v>
       </c>
       <c r="B2421">
-        <v>0.5666988654047809</v>
+        <v>0.5666988654047808</v>
       </c>
     </row>
     <row r="2422" spans="1:2">
@@ -19719,7 +19719,7 @@
         <v>2422</v>
       </c>
       <c r="B2422">
-        <v>2.618300176252923</v>
+        <v>2.618300176252922</v>
       </c>
     </row>
     <row r="2423" spans="1:2">
@@ -19727,7 +19727,7 @@
         <v>2423</v>
       </c>
       <c r="B2423">
-        <v>12.74758201739553</v>
+        <v>12.74758201739552</v>
       </c>
     </row>
     <row r="2424" spans="1:2">
@@ -19807,7 +19807,7 @@
         <v>2433</v>
       </c>
       <c r="B2433">
-        <v>53.88101960586635</v>
+        <v>53.88101960586634</v>
       </c>
     </row>
     <row r="2434" spans="1:2">
@@ -19815,7 +19815,7 @@
         <v>2434</v>
       </c>
       <c r="B2434">
-        <v>42.64858555124611</v>
+        <v>42.6485855512461</v>
       </c>
     </row>
     <row r="2435" spans="1:2">
@@ -19855,7 +19855,7 @@
         <v>2439</v>
       </c>
       <c r="B2439">
-        <v>3.963609955271497</v>
+        <v>3.963609955271498</v>
       </c>
     </row>
     <row r="2440" spans="1:2">
@@ -20143,7 +20143,7 @@
         <v>2475</v>
       </c>
       <c r="B2475">
-        <v>62.00492242116536</v>
+        <v>62.00492242116535</v>
       </c>
     </row>
     <row r="2476" spans="1:2">
@@ -20199,7 +20199,7 @@
         <v>2482</v>
       </c>
       <c r="B2482">
-        <v>0.7178291524795861</v>
+        <v>0.717829152479586</v>
       </c>
     </row>
     <row r="2483" spans="1:2">
@@ -20351,7 +20351,7 @@
         <v>2501</v>
       </c>
       <c r="B2501">
-        <v>66.09036200720838</v>
+        <v>66.09036200720837</v>
       </c>
     </row>
     <row r="2502" spans="1:2">
@@ -20591,7 +20591,7 @@
         <v>2531</v>
       </c>
       <c r="B2531">
-        <v>2.009157297674013</v>
+        <v>2.009157297674012</v>
       </c>
     </row>
     <row r="2532" spans="1:2">
@@ -21087,7 +21087,7 @@
         <v>2593</v>
       </c>
       <c r="B2593">
-        <v>0.7779512107057678</v>
+        <v>0.7779512107057677</v>
       </c>
     </row>
     <row r="2594" spans="1:2">
@@ -21447,7 +21447,7 @@
         <v>2638</v>
       </c>
       <c r="B2638">
-        <v>0.6173374378909201</v>
+        <v>0.61733743789092</v>
       </c>
     </row>
     <row r="2639" spans="1:2">
@@ -21495,7 +21495,7 @@
         <v>2644</v>
       </c>
       <c r="B2644">
-        <v>117.7567053188291</v>
+        <v>117.756705318829</v>
       </c>
     </row>
     <row r="2645" spans="1:2">
@@ -21735,7 +21735,7 @@
         <v>2674</v>
       </c>
       <c r="B2674">
-        <v>2.38043610142837</v>
+        <v>2.380436101428369</v>
       </c>
     </row>
     <row r="2675" spans="1:2">
@@ -21831,7 +21831,7 @@
         <v>2686</v>
       </c>
       <c r="B2686">
-        <v>0.2404152289089961</v>
+        <v>0.240415228908996</v>
       </c>
     </row>
     <row r="2687" spans="1:2">
@@ -21879,7 +21879,7 @@
         <v>2692</v>
       </c>
       <c r="B2692">
-        <v>91.97208088057297</v>
+        <v>91.97208088057296</v>
       </c>
     </row>
     <row r="2693" spans="1:2">
@@ -22303,7 +22303,7 @@
         <v>2745</v>
       </c>
       <c r="B2745">
-        <v>6.439737853817339</v>
+        <v>6.439737853817338</v>
       </c>
     </row>
     <row r="2746" spans="1:2">
@@ -22839,7 +22839,7 @@
         <v>2812</v>
       </c>
       <c r="B2812">
-        <v>6.646230432379427</v>
+        <v>6.646230432379426</v>
       </c>
     </row>
     <row r="2813" spans="1:2">
@@ -23063,7 +23063,7 @@
         <v>2840</v>
       </c>
       <c r="B2840">
-        <v>3.848803478870458</v>
+        <v>3.848803478870457</v>
       </c>
     </row>
     <row r="2841" spans="1:2">
@@ -23071,7 +23071,7 @@
         <v>2841</v>
       </c>
       <c r="B2841">
-        <v>1.525751272954057</v>
+        <v>1.525751272954056</v>
       </c>
     </row>
     <row r="2842" spans="1:2">
@@ -23167,7 +23167,7 @@
         <v>2853</v>
       </c>
       <c r="B2853">
-        <v>0.6322735103052569</v>
+        <v>0.6322735103052568</v>
       </c>
     </row>
     <row r="2854" spans="1:2">
@@ -23191,7 +23191,7 @@
         <v>2856</v>
       </c>
       <c r="B2856">
-        <v>23.55518908650344</v>
+        <v>23.55518908650343</v>
       </c>
     </row>
     <row r="2857" spans="1:2">
@@ -23279,7 +23279,7 @@
         <v>2867</v>
       </c>
       <c r="B2867">
-        <v>18.64344625751215</v>
+        <v>18.64344625751214</v>
       </c>
     </row>
     <row r="2868" spans="1:2">
@@ -23295,7 +23295,7 @@
         <v>2869</v>
       </c>
       <c r="B2869">
-        <v>7.625444662033409</v>
+        <v>7.625444662033408</v>
       </c>
     </row>
     <row r="2870" spans="1:2">
@@ -23311,7 +23311,7 @@
         <v>2871</v>
       </c>
       <c r="B2871">
-        <v>0.8265922109923913</v>
+        <v>0.8265922109923912</v>
       </c>
     </row>
     <row r="2872" spans="1:2">
@@ -23439,7 +23439,7 @@
         <v>2887</v>
       </c>
       <c r="B2887">
-        <v>7.919063157394974</v>
+        <v>7.919063157394973</v>
       </c>
     </row>
     <row r="2888" spans="1:2">
@@ -23447,7 +23447,7 @@
         <v>2888</v>
       </c>
       <c r="B2888">
-        <v>3.932245492713961</v>
+        <v>3.93224549271396</v>
       </c>
     </row>
     <row r="2889" spans="1:2">
@@ -23663,7 +23663,7 @@
         <v>2915</v>
       </c>
       <c r="B2915">
-        <v>21.86084576784906</v>
+        <v>21.86084576784905</v>
       </c>
     </row>
     <row r="2916" spans="1:2">
@@ -23999,7 +23999,7 @@
         <v>2957</v>
       </c>
       <c r="B2957">
-        <v>5.14349725187287</v>
+        <v>5.143497251872869</v>
       </c>
     </row>
     <row r="2958" spans="1:2">
@@ -24959,7 +24959,7 @@
         <v>3077</v>
       </c>
       <c r="B3077">
-        <v>2.052351191714765</v>
+        <v>2.052351191714764</v>
       </c>
     </row>
     <row r="3078" spans="1:2">
@@ -25111,7 +25111,7 @@
         <v>3096</v>
       </c>
       <c r="B3096">
-        <v>0.5923217732439037</v>
+        <v>0.5923217732439036</v>
       </c>
     </row>
     <row r="3097" spans="1:2">
@@ -25367,7 +25367,7 @@
         <v>3128</v>
       </c>
       <c r="B3128">
-        <v>0.2350992426458218</v>
+        <v>0.2350992426458217</v>
       </c>
     </row>
     <row r="3129" spans="1:2">
@@ -25895,7 +25895,7 @@
         <v>3194</v>
       </c>
       <c r="B3194">
-        <v>7.288792494567929</v>
+        <v>7.288792494567928</v>
       </c>
     </row>
     <row r="3195" spans="1:2">
@@ -26095,7 +26095,7 @@
         <v>3219</v>
       </c>
       <c r="B3219">
-        <v>8.591837619888036</v>
+        <v>8.591837619888034</v>
       </c>
     </row>
     <row r="3220" spans="1:2">
@@ -27255,7 +27255,7 @@
         <v>3364</v>
       </c>
       <c r="B3364">
-        <v>4.101303228294719</v>
+        <v>4.101303228294718</v>
       </c>
     </row>
     <row r="3365" spans="1:2">
@@ -27271,7 +27271,7 @@
         <v>3366</v>
       </c>
       <c r="B3366">
-        <v>1.786656739373684</v>
+        <v>1.786656739373683</v>
       </c>
     </row>
     <row r="3367" spans="1:2">
@@ -27991,7 +27991,7 @@
         <v>3456</v>
       </c>
       <c r="B3456">
-        <v>0.5584435026443799</v>
+        <v>0.5584435026443798</v>
       </c>
     </row>
     <row r="3457" spans="1:2">
@@ -28047,7 +28047,7 @@
         <v>3463</v>
       </c>
       <c r="B3463">
-        <v>4.205988496375591</v>
+        <v>4.20598849637559</v>
       </c>
     </row>
     <row r="3464" spans="1:2">
@@ -32047,7 +32047,7 @@
         <v>3963</v>
       </c>
       <c r="B3963">
-        <v>0.4783912861774217</v>
+        <v>0.4783912861774216</v>
       </c>
     </row>
     <row r="3964" spans="1:2">
@@ -32247,7 +32247,7 @@
         <v>3988</v>
       </c>
       <c r="B3988">
-        <v>1.036325569099997</v>
+        <v>1.036325569099996</v>
       </c>
     </row>
     <row r="3989" spans="1:2">
@@ -32263,7 +32263,7 @@
         <v>3990</v>
       </c>
       <c r="B3990">
-        <v>0.81646045211483</v>
+        <v>0.8164604521148298</v>
       </c>
     </row>
     <row r="3991" spans="1:2">
@@ -32447,7 +32447,7 @@
         <v>4013</v>
       </c>
       <c r="B4013">
-        <v>0.2200779744805462</v>
+        <v>0.2200779744805461</v>
       </c>
     </row>
     <row r="4014" spans="1:2">
@@ -33975,7 +33975,7 @@
         <v>4204</v>
       </c>
       <c r="B4204">
-        <v>0.1759381643554108</v>
+        <v>0.1759381643554107</v>
       </c>
     </row>
     <row r="4205" spans="1:2">
@@ -42623,7 +42623,7 @@
         <v>5285</v>
       </c>
       <c r="B5285">
-        <v>0.8565382097228076</v>
+        <v>0.8565382097228075</v>
       </c>
     </row>
     <row r="5286" spans="1:2">
@@ -42823,7 +42823,7 @@
         <v>5310</v>
       </c>
       <c r="B5310">
-        <v>0.8535078551830493</v>
+        <v>0.8535078551830492</v>
       </c>
     </row>
     <row r="5311" spans="1:2">
@@ -43015,7 +43015,7 @@
         <v>5334</v>
       </c>
       <c r="B5334">
-        <v>0.3583467511023867</v>
+        <v>0.3583467511023866</v>
       </c>
     </row>
     <row r="5335" spans="1:2">
@@ -45127,7 +45127,7 @@
         <v>5598</v>
       </c>
       <c r="B5598">
-        <v>0.4591373981504873</v>
+        <v>0.4591373981504872</v>
       </c>
     </row>
     <row r="5599" spans="1:2">
@@ -46663,7 +46663,7 @@
         <v>5790</v>
       </c>
       <c r="B5790">
-        <v>0.0164159053169534</v>
+        <v>0.0164159053169533</v>
       </c>
     </row>
     <row r="5791" spans="1:2">
@@ -46839,7 +46839,7 @@
         <v>5812</v>
       </c>
       <c r="B5812">
-        <v>0.581622628835494</v>
+        <v>0.5816226288354939</v>
       </c>
     </row>
     <row r="5813" spans="1:2">
@@ -50727,7 +50727,7 @@
         <v>6298</v>
       </c>
       <c r="B6298">
-        <v>0.9435246247078815</v>
+        <v>0.9435246247078813</v>
       </c>
     </row>
     <row r="6299" spans="1:2">
@@ -50895,7 +50895,7 @@
         <v>6319</v>
       </c>
       <c r="B6319">
-        <v>0.9102387884208805</v>
+        <v>0.9102387884208804</v>
       </c>
     </row>
     <row r="6320" spans="1:2">
@@ -50903,7 +50903,7 @@
         <v>6320</v>
       </c>
       <c r="B6320">
-        <v>2.166366171161693</v>
+        <v>2.166366171161692</v>
       </c>
     </row>
     <row r="6321" spans="1:2">
@@ -51039,7 +51039,7 @@
         <v>6337</v>
       </c>
       <c r="B6337">
-        <v>0.170602806096581</v>
+        <v>0.1706028060965809</v>
       </c>
     </row>
     <row r="6338" spans="1:2">
@@ -51495,7 +51495,7 @@
         <v>6394</v>
       </c>
       <c r="B6394">
-        <v>0.3304870664819927</v>
+        <v>0.3304870664819926</v>
       </c>
     </row>
     <row r="6395" spans="1:2">
@@ -52423,7 +52423,7 @@
         <v>6510</v>
       </c>
       <c r="B6510">
-        <v>0.4796705412611785</v>
+        <v>0.4796705412611784</v>
       </c>
     </row>
     <row r="6511" spans="1:2">
@@ -52783,7 +52783,7 @@
         <v>6555</v>
       </c>
       <c r="B6555">
-        <v>0.2084608436577376</v>
+        <v>0.2084608436577375</v>
       </c>
     </row>
     <row r="6556" spans="1:2">
@@ -52831,7 +52831,7 @@
         <v>6561</v>
       </c>
       <c r="B6561">
-        <v>0.2069454026239236</v>
+        <v>0.2069454026239235</v>
       </c>
     </row>
     <row r="6562" spans="1:2">
@@ -53007,7 +53007,7 @@
         <v>6583</v>
       </c>
       <c r="B6583">
-        <v>1.106085268432557</v>
+        <v>1.106085268432556</v>
       </c>
     </row>
     <row r="6584" spans="1:2">
@@ -53015,7 +53015,7 @@
         <v>6584</v>
       </c>
       <c r="B6584">
-        <v>3.097347648485908</v>
+        <v>3.097347648485907</v>
       </c>
     </row>
     <row r="6585" spans="1:2">
@@ -53031,7 +53031,7 @@
         <v>6586</v>
       </c>
       <c r="B6586">
-        <v>1.909897067589802</v>
+        <v>1.909897067589801</v>
       </c>
     </row>
     <row r="6587" spans="1:2">
@@ -53231,7 +53231,7 @@
         <v>6611</v>
       </c>
       <c r="B6611">
-        <v>12.72803593754305</v>
+        <v>12.72803593754304</v>
       </c>
     </row>
     <row r="6612" spans="1:2">
@@ -53735,7 +53735,7 @@
         <v>6674</v>
       </c>
       <c r="B6674">
-        <v>0.5814957290757536</v>
+        <v>0.5814957290757534</v>
       </c>
     </row>
     <row r="6675" spans="1:2">
@@ -54863,7 +54863,7 @@
         <v>6815</v>
       </c>
       <c r="B6815">
-        <v>15.18620268441349</v>
+        <v>15.18620268441348</v>
       </c>
     </row>
     <row r="6816" spans="1:2">
@@ -54967,7 +54967,7 @@
         <v>6828</v>
       </c>
       <c r="B6828">
-        <v>6.369309952516631</v>
+        <v>6.36930995251663</v>
       </c>
     </row>
     <row r="6829" spans="1:2">
@@ -55143,7 +55143,7 @@
         <v>6850</v>
       </c>
       <c r="B6850">
-        <v>23.23967173699102</v>
+        <v>23.23967173699101</v>
       </c>
     </row>
     <row r="6851" spans="1:2">
@@ -55231,7 +55231,7 @@
         <v>6861</v>
       </c>
       <c r="B6861">
-        <v>1.601842772076895</v>
+        <v>1.601842772076894</v>
       </c>
     </row>
     <row r="6862" spans="1:2">
@@ -55271,7 +55271,7 @@
         <v>6866</v>
       </c>
       <c r="B6866">
-        <v>97.5190071222124</v>
+        <v>97.51900712221239</v>
       </c>
     </row>
     <row r="6867" spans="1:2">
@@ -55279,7 +55279,7 @@
         <v>6867</v>
       </c>
       <c r="B6867">
-        <v>127.1843610260066</v>
+        <v>127.1843610260065</v>
       </c>
     </row>
     <row r="6868" spans="1:2">
@@ -55303,7 +55303,7 @@
         <v>6870</v>
       </c>
       <c r="B6870">
-        <v>195.4410455367919</v>
+        <v>195.4410455367918</v>
       </c>
     </row>
     <row r="6871" spans="1:2">
@@ -55335,7 +55335,7 @@
         <v>6874</v>
       </c>
       <c r="B6874">
-        <v>28.9811033655692</v>
+        <v>28.98110336556919</v>
       </c>
     </row>
     <row r="6875" spans="1:2">
@@ -55391,7 +55391,7 @@
         <v>6881</v>
       </c>
       <c r="B6881">
-        <v>2.227392060471106</v>
+        <v>2.227392060471105</v>
       </c>
     </row>
     <row r="6882" spans="1:2">
@@ -55487,7 +55487,7 @@
         <v>6893</v>
       </c>
       <c r="B6893">
-        <v>353.2691781291635</v>
+        <v>353.2691781291634</v>
       </c>
     </row>
     <row r="6894" spans="1:2">
@@ -55495,7 +55495,7 @@
         <v>6894</v>
       </c>
       <c r="B6894">
-        <v>294.8402499075361</v>
+        <v>294.840249907536</v>
       </c>
     </row>
     <row r="6895" spans="1:2">
@@ -55503,7 +55503,7 @@
         <v>6895</v>
       </c>
       <c r="B6895">
-        <v>88.92334199455944</v>
+        <v>88.92334199455942</v>
       </c>
     </row>
     <row r="6896" spans="1:2">
@@ -55543,7 +55543,7 @@
         <v>6900</v>
       </c>
       <c r="B6900">
-        <v>31.36630597437035</v>
+        <v>31.36630597437034</v>
       </c>
     </row>
     <row r="6901" spans="1:2">
@@ -55567,7 +55567,7 @@
         <v>6903</v>
       </c>
       <c r="B6903">
-        <v>6.71950346732346</v>
+        <v>6.719503467323459</v>
       </c>
     </row>
     <row r="6904" spans="1:2">
@@ -56015,7 +56015,7 @@
         <v>6959</v>
       </c>
       <c r="B6959">
-        <v>0.4867143278327807</v>
+        <v>0.4867143278327806</v>
       </c>
     </row>
     <row r="6960" spans="1:2">
@@ -56103,7 +56103,7 @@
         <v>6970</v>
       </c>
       <c r="B6970">
-        <v>19.63673229308746</v>
+        <v>19.63673229308745</v>
       </c>
     </row>
     <row r="6971" spans="1:2">
@@ -56223,7 +56223,7 @@
         <v>6985</v>
       </c>
       <c r="B6985">
-        <v>0.2229253647708683</v>
+        <v>0.2229253647708682</v>
       </c>
     </row>
     <row r="6986" spans="1:2">
@@ -56455,7 +56455,7 @@
         <v>7014</v>
       </c>
       <c r="B7014">
-        <v>5.425911348355374</v>
+        <v>5.425911348355373</v>
       </c>
     </row>
     <row r="7015" spans="1:2">
@@ -56815,7 +56815,7 @@
         <v>7059</v>
       </c>
       <c r="B7059">
-        <v>0.9590174441743632</v>
+        <v>0.9590174441743631</v>
       </c>
     </row>
     <row r="7060" spans="1:2">
@@ -56831,7 +56831,7 @@
         <v>7061</v>
       </c>
       <c r="B7061">
-        <v>3.647874560906317</v>
+        <v>3.647874560906316</v>
       </c>
     </row>
     <row r="7062" spans="1:2">
@@ -57807,7 +57807,7 @@
         <v>7183</v>
       </c>
       <c r="B7183">
-        <v>36.13712735284757</v>
+        <v>36.13712735284756</v>
       </c>
     </row>
     <row r="7184" spans="1:2">
@@ -57927,7 +57927,7 @@
         <v>7198</v>
       </c>
       <c r="B7198">
-        <v>0.8386764091295145</v>
+        <v>0.8386764091295142</v>
       </c>
     </row>
     <row r="7199" spans="1:2">
@@ -58383,7 +58383,7 @@
         <v>7255</v>
       </c>
       <c r="B7255">
-        <v>50.90265879907695</v>
+        <v>50.90265879907694</v>
       </c>
     </row>
     <row r="7256" spans="1:2">
@@ -58447,7 +58447,7 @@
         <v>7263</v>
       </c>
       <c r="B7263">
-        <v>2.822437049806251</v>
+        <v>2.82243704980625</v>
       </c>
     </row>
     <row r="7264" spans="1:2">
@@ -58663,7 +58663,7 @@
         <v>7290</v>
       </c>
       <c r="B7290">
-        <v>6.426522401470983</v>
+        <v>6.426522401470982</v>
       </c>
     </row>
     <row r="7291" spans="1:2">
@@ -58671,7 +58671,7 @@
         <v>7291</v>
       </c>
       <c r="B7291">
-        <v>3.004643065851305</v>
+        <v>3.004643065851304</v>
       </c>
     </row>
     <row r="7292" spans="1:2">
@@ -58783,7 +58783,7 @@
         <v>7305</v>
       </c>
       <c r="B7305">
-        <v>58.65824458653832</v>
+        <v>58.6582445865383</v>
       </c>
     </row>
     <row r="7306" spans="1:2">
@@ -58815,7 +58815,7 @@
         <v>7309</v>
       </c>
       <c r="B7309">
-        <v>27.04825619801286</v>
+        <v>27.04825619801285</v>
       </c>
     </row>
     <row r="7310" spans="1:2">
@@ -59159,7 +59159,7 @@
         <v>7352</v>
       </c>
       <c r="B7352">
-        <v>93.8343128744349</v>
+        <v>93.83431287443487</v>
       </c>
     </row>
     <row r="7353" spans="1:2">
@@ -59183,7 +59183,7 @@
         <v>7355</v>
       </c>
       <c r="B7355">
-        <v>42.76832558551198</v>
+        <v>42.76832558551197</v>
       </c>
     </row>
     <row r="7356" spans="1:2">
@@ -59551,7 +59551,7 @@
         <v>7401</v>
       </c>
       <c r="B7401">
-        <v>76.43872089731319</v>
+        <v>76.43872089731317</v>
       </c>
     </row>
     <row r="7402" spans="1:2">
@@ -59975,7 +59975,7 @@
         <v>7454</v>
       </c>
       <c r="B7454">
-        <v>0.734945966492602</v>
+        <v>0.7349459664926019</v>
       </c>
     </row>
     <row r="7455" spans="1:2">
@@ -60135,7 +60135,7 @@
         <v>7474</v>
       </c>
       <c r="B7474">
-        <v>73.60725315652162</v>
+        <v>73.60725315652161</v>
       </c>
     </row>
     <row r="7475" spans="1:2">
@@ -60175,7 +60175,7 @@
         <v>7479</v>
       </c>
       <c r="B7479">
-        <v>29.4874861597202</v>
+        <v>29.48748615972019</v>
       </c>
     </row>
     <row r="7480" spans="1:2">
@@ -60223,7 +60223,7 @@
         <v>7485</v>
       </c>
       <c r="B7485">
-        <v>36.89922342036176</v>
+        <v>36.89922342036175</v>
       </c>
     </row>
     <row r="7486" spans="1:2">
@@ -60231,7 +60231,7 @@
         <v>7486</v>
       </c>
       <c r="B7486">
-        <v>40.9512734229701</v>
+        <v>40.95127342297009</v>
       </c>
     </row>
     <row r="7487" spans="1:2">
@@ -60287,7 +60287,7 @@
         <v>7493</v>
       </c>
       <c r="B7493">
-        <v>290.545323143058</v>
+        <v>290.5453231430579</v>
       </c>
     </row>
     <row r="7494" spans="1:2">
@@ -60431,7 +60431,7 @@
         <v>7511</v>
       </c>
       <c r="B7511">
-        <v>252.2861006370779</v>
+        <v>252.2861006370778</v>
       </c>
     </row>
     <row r="7512" spans="1:2">
@@ -60471,7 +60471,7 @@
         <v>7516</v>
       </c>
       <c r="B7516">
-        <v>402.0518489558759</v>
+        <v>402.0518489558758</v>
       </c>
     </row>
     <row r="7517" spans="1:2">
@@ -60495,7 +60495,7 @@
         <v>7519</v>
       </c>
       <c r="B7519">
-        <v>427.96782783366</v>
+        <v>427.9678278336598</v>
       </c>
     </row>
     <row r="7520" spans="1:2">
@@ -60503,7 +60503,7 @@
         <v>7520</v>
       </c>
       <c r="B7520">
-        <v>98.9989279461406</v>
+        <v>98.99892794614058</v>
       </c>
     </row>
     <row r="7521" spans="1:2">
@@ -60727,7 +60727,7 @@
         <v>7548</v>
       </c>
       <c r="B7548">
-        <v>41.14112191110453</v>
+        <v>41.14112191110452</v>
       </c>
     </row>
     <row r="7549" spans="1:2">
@@ -60799,7 +60799,7 @@
         <v>7557</v>
       </c>
       <c r="B7557">
-        <v>89.6118625778177</v>
+        <v>89.61186257781767</v>
       </c>
     </row>
     <row r="7558" spans="1:2">
@@ -60839,7 +60839,7 @@
         <v>7562</v>
       </c>
       <c r="B7562">
-        <v>230.2002671635589</v>
+        <v>230.2002671635588</v>
       </c>
     </row>
     <row r="7563" spans="1:2">
@@ -60887,7 +60887,7 @@
         <v>7568</v>
       </c>
       <c r="B7568">
-        <v>53.99558693629984</v>
+        <v>53.99558693629983</v>
       </c>
     </row>
     <row r="7569" spans="1:2">
@@ -61247,7 +61247,7 @@
         <v>7613</v>
       </c>
       <c r="B7613">
-        <v>443.0047166852963</v>
+        <v>443.0047166852962</v>
       </c>
     </row>
     <row r="7614" spans="1:2">
@@ -61263,7 +61263,7 @@
         <v>7615</v>
       </c>
       <c r="B7615">
-        <v>646.3338864560737</v>
+        <v>646.3338864560736</v>
       </c>
     </row>
     <row r="7616" spans="1:2">
@@ -61287,7 +61287,7 @@
         <v>7618</v>
       </c>
       <c r="B7618">
-        <v>393.119073004582</v>
+        <v>393.1190730045819</v>
       </c>
     </row>
     <row r="7619" spans="1:2">
@@ -61359,7 +61359,7 @@
         <v>7627</v>
       </c>
       <c r="B7627">
-        <v>266.8068327754238</v>
+        <v>266.8068327754237</v>
       </c>
     </row>
     <row r="7628" spans="1:2">
@@ -61447,7 +61447,7 @@
         <v>7638</v>
       </c>
       <c r="B7638">
-        <v>622.8413119969803</v>
+        <v>622.8413119969802</v>
       </c>
     </row>
     <row r="7639" spans="1:2">
@@ -61471,7 +61471,7 @@
         <v>7641</v>
       </c>
       <c r="B7641">
-        <v>173.6319883521847</v>
+        <v>173.6319883521846</v>
       </c>
     </row>
     <row r="7642" spans="1:2">
@@ -61479,7 +61479,7 @@
         <v>7642</v>
       </c>
       <c r="B7642">
-        <v>201.5035716567482</v>
+        <v>201.5035716567481</v>
       </c>
     </row>
     <row r="7643" spans="1:2">
@@ -61551,7 +61551,7 @@
         <v>7651</v>
       </c>
       <c r="B7651">
-        <v>101.7121503149635</v>
+        <v>101.7121503149634</v>
       </c>
     </row>
     <row r="7652" spans="1:2">
@@ -61599,7 +61599,7 @@
         <v>7657</v>
       </c>
       <c r="B7657">
-        <v>163.6001080845991</v>
+        <v>163.600108084599</v>
       </c>
     </row>
     <row r="7658" spans="1:2">
@@ -61607,7 +61607,7 @@
         <v>7658</v>
       </c>
       <c r="B7658">
-        <v>189.932101301763</v>
+        <v>189.9321013017629</v>
       </c>
     </row>
     <row r="7659" spans="1:2">
@@ -61663,7 +61663,7 @@
         <v>7665</v>
       </c>
       <c r="B7665">
-        <v>89.67833108938611</v>
+        <v>89.67833108938609</v>
       </c>
     </row>
     <row r="7666" spans="1:2">
@@ -61839,7 +61839,7 @@
         <v>7687</v>
       </c>
       <c r="B7687">
-        <v>331.8370103002748</v>
+        <v>331.8370103002747</v>
       </c>
     </row>
     <row r="7688" spans="1:2">
@@ -61863,7 +61863,7 @@
         <v>7690</v>
       </c>
       <c r="B7690">
-        <v>72.02669173791712</v>
+        <v>72.0266917379171</v>
       </c>
     </row>
     <row r="7691" spans="1:2">
@@ -61895,7 +61895,7 @@
         <v>7694</v>
       </c>
       <c r="B7694">
-        <v>18.52579113061532</v>
+        <v>18.52579113061531</v>
       </c>
     </row>
     <row r="7695" spans="1:2">
@@ -61951,7 +61951,7 @@
         <v>7701</v>
       </c>
       <c r="B7701">
-        <v>82.55397928925585</v>
+        <v>82.55397928925584</v>
       </c>
     </row>
     <row r="7702" spans="1:2">
@@ -62079,7 +62079,7 @@
         <v>7717</v>
       </c>
       <c r="B7717">
-        <v>4.130095406345927</v>
+        <v>4.130095406345926</v>
       </c>
     </row>
     <row r="7718" spans="1:2">
@@ -62175,7 +62175,7 @@
         <v>7729</v>
       </c>
       <c r="B7729">
-        <v>90.47785818995811</v>
+        <v>90.4778581899581</v>
       </c>
     </row>
     <row r="7730" spans="1:2">
@@ -62183,7 +62183,7 @@
         <v>7730</v>
       </c>
       <c r="B7730">
-        <v>112.1691887383351</v>
+        <v>112.169188738335</v>
       </c>
     </row>
     <row r="7731" spans="1:2">
@@ -62279,7 +62279,7 @@
         <v>7742</v>
       </c>
       <c r="B7742">
-        <v>66.01426318130959</v>
+        <v>66.01426318130956</v>
       </c>
     </row>
     <row r="7743" spans="1:2">
@@ -62351,7 +62351,7 @@
         <v>7751</v>
       </c>
       <c r="B7751">
-        <v>15.53455922994999</v>
+        <v>15.53455922994998</v>
       </c>
     </row>
     <row r="7752" spans="1:2">
@@ -62471,7 +62471,7 @@
         <v>7766</v>
       </c>
       <c r="B7766">
-        <v>20.73553679770655</v>
+        <v>20.73553679770654</v>
       </c>
     </row>
     <row r="7767" spans="1:2">
@@ -62567,7 +62567,7 @@
         <v>7778</v>
       </c>
       <c r="B7778">
-        <v>89.64193166638435</v>
+        <v>89.64193166638434</v>
       </c>
     </row>
     <row r="7779" spans="1:2">
@@ -62591,7 +62591,7 @@
         <v>7781</v>
       </c>
       <c r="B7781">
-        <v>221.9029278382905</v>
+        <v>221.9029278382904</v>
       </c>
     </row>
     <row r="7782" spans="1:2">
@@ -62703,7 +62703,7 @@
         <v>7795</v>
       </c>
       <c r="B7795">
-        <v>32.89496744273832</v>
+        <v>32.89496744273831</v>
       </c>
     </row>
     <row r="7796" spans="1:2">
@@ -62727,7 +62727,7 @@
         <v>7798</v>
       </c>
       <c r="B7798">
-        <v>9.851059539726075</v>
+        <v>9.851059539726073</v>
       </c>
     </row>
     <row r="7799" spans="1:2">
@@ -62759,7 +62759,7 @@
         <v>7802</v>
       </c>
       <c r="B7802">
-        <v>90.99246162674356</v>
+        <v>90.99246162674355</v>
       </c>
     </row>
     <row r="7803" spans="1:2">
@@ -62807,7 +62807,7 @@
         <v>7808</v>
       </c>
       <c r="B7808">
-        <v>5.735746050428148</v>
+        <v>5.735746050428146</v>
       </c>
     </row>
     <row r="7809" spans="1:2">
@@ -63007,7 +63007,7 @@
         <v>7833</v>
       </c>
       <c r="B7833">
-        <v>0.7184243797591072</v>
+        <v>0.7184243797591071</v>
       </c>
     </row>
     <row r="7834" spans="1:2">
@@ -63183,7 +63183,7 @@
         <v>7855</v>
       </c>
       <c r="B7855">
-        <v>2.381111923243523</v>
+        <v>2.381111923243522</v>
       </c>
     </row>
     <row r="7856" spans="1:2">
@@ -63511,7 +63511,7 @@
         <v>7896</v>
       </c>
       <c r="B7896">
-        <v>7.482313162816789</v>
+        <v>7.482313162816788</v>
       </c>
     </row>
     <row r="7897" spans="1:2">
@@ -63599,7 +63599,7 @@
         <v>7907</v>
       </c>
       <c r="B7907">
-        <v>124.8457127516968</v>
+        <v>124.8457127516967</v>
       </c>
     </row>
     <row r="7908" spans="1:2">
@@ -63631,7 +63631,7 @@
         <v>7911</v>
       </c>
       <c r="B7911">
-        <v>30.47219019607039</v>
+        <v>30.47219019607038</v>
       </c>
     </row>
     <row r="7912" spans="1:2">
@@ -63671,7 +63671,7 @@
         <v>7916</v>
       </c>
       <c r="B7916">
-        <v>41.83931970005938</v>
+        <v>41.83931970005937</v>
       </c>
     </row>
     <row r="7917" spans="1:2">
@@ -63679,7 +63679,7 @@
         <v>7917</v>
       </c>
       <c r="B7917">
-        <v>26.93416041888058</v>
+        <v>26.93416041888057</v>
       </c>
     </row>
     <row r="7918" spans="1:2">
@@ -63743,7 +63743,7 @@
         <v>7925</v>
       </c>
       <c r="B7925">
-        <v>222.6766646874603</v>
+        <v>222.6766646874602</v>
       </c>
     </row>
     <row r="7926" spans="1:2">
@@ -63847,7 +63847,7 @@
         <v>7938</v>
       </c>
       <c r="B7938">
-        <v>0.6100809989736652</v>
+        <v>0.6100809989736651</v>
       </c>
     </row>
     <row r="7939" spans="1:2">
@@ -63911,7 +63911,7 @@
         <v>7946</v>
       </c>
       <c r="B7946">
-        <v>19.5562523482317</v>
+        <v>19.55625234823169</v>
       </c>
     </row>
     <row r="7947" spans="1:2">
@@ -63935,7 +63935,7 @@
         <v>7949</v>
       </c>
       <c r="B7949">
-        <v>40.7715739849045</v>
+        <v>40.77157398490449</v>
       </c>
     </row>
     <row r="7950" spans="1:2">
@@ -64095,7 +64095,7 @@
         <v>7969</v>
       </c>
       <c r="B7969">
-        <v>0.8041652428298705</v>
+        <v>0.8041652428298703</v>
       </c>
     </row>
     <row r="7970" spans="1:2">
@@ -64127,7 +64127,7 @@
         <v>7973</v>
       </c>
       <c r="B7973">
-        <v>30.57340520998247</v>
+        <v>30.57340520998246</v>
       </c>
     </row>
     <row r="7974" spans="1:2">
@@ -64151,7 +64151,7 @@
         <v>7976</v>
       </c>
       <c r="B7976">
-        <v>0.6599813255134166</v>
+        <v>0.6599813255134164</v>
       </c>
     </row>
     <row r="7977" spans="1:2">
@@ -64183,7 +64183,7 @@
         <v>7980</v>
       </c>
       <c r="B7980">
-        <v>6.01185296508762</v>
+        <v>6.011852965087619</v>
       </c>
     </row>
     <row r="7981" spans="1:2">
@@ -64287,7 +64287,7 @@
         <v>7993</v>
       </c>
       <c r="B7993">
-        <v>8.558726453940078</v>
+        <v>8.558726453940077</v>
       </c>
     </row>
     <row r="7994" spans="1:2">
@@ -64343,7 +64343,7 @@
         <v>8000</v>
       </c>
       <c r="B8000">
-        <v>31.06622174575385</v>
+        <v>31.06622174575384</v>
       </c>
     </row>
     <row r="8001" spans="1:2">
@@ -64351,7 +64351,7 @@
         <v>8001</v>
       </c>
       <c r="B8001">
-        <v>23.83821951138025</v>
+        <v>23.83821951138024</v>
       </c>
     </row>
     <row r="8002" spans="1:2">
@@ -64375,7 +64375,7 @@
         <v>8004</v>
       </c>
       <c r="B8004">
-        <v>42.74136304995514</v>
+        <v>42.74136304995513</v>
       </c>
     </row>
     <row r="8005" spans="1:2">
@@ -64407,7 +64407,7 @@
         <v>8008</v>
       </c>
       <c r="B8008">
-        <v>5.034031409009356</v>
+        <v>5.034031409009355</v>
       </c>
     </row>
     <row r="8009" spans="1:2">
@@ -64551,7 +64551,7 @@
         <v>8026</v>
       </c>
       <c r="B8026">
-        <v>67.70289161471005</v>
+        <v>67.70289161471004</v>
       </c>
     </row>
     <row r="8027" spans="1:2">
@@ -64735,7 +64735,7 @@
         <v>8049</v>
       </c>
       <c r="B8049">
-        <v>101.8799334845971</v>
+        <v>101.879933484597</v>
       </c>
     </row>
     <row r="8050" spans="1:2">
@@ -65031,7 +65031,7 @@
         <v>8086</v>
       </c>
       <c r="B8086">
-        <v>63.8405728718207</v>
+        <v>63.84057287182069</v>
       </c>
     </row>
     <row r="8087" spans="1:2">
@@ -65175,7 +65175,7 @@
         <v>8104</v>
       </c>
       <c r="B8104">
-        <v>41.51237551074956</v>
+        <v>41.51237551074955</v>
       </c>
     </row>
     <row r="8105" spans="1:2">
@@ -65215,7 +65215,7 @@
         <v>8109</v>
       </c>
       <c r="B8109">
-        <v>37.12693375598085</v>
+        <v>37.12693375598084</v>
       </c>
     </row>
     <row r="8110" spans="1:2">
@@ -65295,7 +65295,7 @@
         <v>8119</v>
       </c>
       <c r="B8119">
-        <v>381.1594886730975</v>
+        <v>381.1594886730974</v>
       </c>
     </row>
     <row r="8120" spans="1:2">
@@ -65351,7 +65351,7 @@
         <v>8126</v>
       </c>
       <c r="B8126">
-        <v>60.69315403637951</v>
+        <v>60.6931540363795</v>
       </c>
     </row>
     <row r="8127" spans="1:2">
@@ -65359,7 +65359,7 @@
         <v>8127</v>
       </c>
       <c r="B8127">
-        <v>48.74735576655368</v>
+        <v>48.74735576655367</v>
       </c>
     </row>
     <row r="8128" spans="1:2">
@@ -65567,7 +65567,7 @@
         <v>8153</v>
       </c>
       <c r="B8153">
-        <v>70.58856284410204</v>
+        <v>70.58856284410203</v>
       </c>
     </row>
     <row r="8154" spans="1:2">
@@ -65623,7 +65623,7 @@
         <v>8160</v>
       </c>
       <c r="B8160">
-        <v>284.1739880696642</v>
+        <v>284.1739880696641</v>
       </c>
     </row>
     <row r="8161" spans="1:2">
@@ -65671,7 +65671,7 @@
         <v>8166</v>
       </c>
       <c r="B8166">
-        <v>707.0036944535134</v>
+        <v>707.0036944535133</v>
       </c>
     </row>
     <row r="8167" spans="1:2">
@@ -65807,7 +65807,7 @@
         <v>8183</v>
       </c>
       <c r="B8183">
-        <v>341.8289742923947</v>
+        <v>341.8289742923946</v>
       </c>
     </row>
     <row r="8184" spans="1:2">
@@ -65815,7 +65815,7 @@
         <v>8184</v>
       </c>
       <c r="B8184">
-        <v>393.859048070098</v>
+        <v>393.8590480700979</v>
       </c>
     </row>
     <row r="8185" spans="1:2">
@@ -65823,7 +65823,7 @@
         <v>8185</v>
       </c>
       <c r="B8185">
-        <v>429.0187805782996</v>
+        <v>429.0187805782995</v>
       </c>
     </row>
     <row r="8186" spans="1:2">
@@ -65863,7 +65863,7 @@
         <v>8190</v>
       </c>
       <c r="B8190">
-        <v>516.6146367882698</v>
+        <v>516.6146367882696</v>
       </c>
     </row>
     <row r="8191" spans="1:2">
@@ -66111,7 +66111,7 @@
         <v>8221</v>
       </c>
       <c r="B8221">
-        <v>92.477804264887</v>
+        <v>92.47780426488698</v>
       </c>
     </row>
     <row r="8222" spans="1:2">
@@ -66127,7 +66127,7 @@
         <v>8223</v>
       </c>
       <c r="B8223">
-        <v>82.65523533311335</v>
+        <v>82.65523533311334</v>
       </c>
     </row>
     <row r="8224" spans="1:2">
@@ -66247,7 +66247,7 @@
         <v>8238</v>
       </c>
       <c r="B8238">
-        <v>785.8102036785104</v>
+        <v>785.8102036785103</v>
       </c>
     </row>
     <row r="8239" spans="1:2">
@@ -66391,7 +66391,7 @@
         <v>8256</v>
       </c>
       <c r="B8256">
-        <v>262.3252490664223</v>
+        <v>262.3252490664222</v>
       </c>
     </row>
     <row r="8257" spans="1:2">
@@ -66519,7 +66519,7 @@
         <v>8272</v>
       </c>
       <c r="B8272">
-        <v>87.97215356219056</v>
+        <v>87.97215356219054</v>
       </c>
     </row>
     <row r="8273" spans="1:2">
@@ -66527,7 +66527,7 @@
         <v>8273</v>
       </c>
       <c r="B8273">
-        <v>46.83727113349914</v>
+        <v>46.83727113349913</v>
       </c>
     </row>
     <row r="8274" spans="1:2">
@@ -66855,7 +66855,7 @@
         <v>8314</v>
       </c>
       <c r="B8314">
-        <v>430.1034364923852</v>
+        <v>430.1034364923851</v>
       </c>
     </row>
     <row r="8315" spans="1:2">
@@ -66927,7 +66927,7 @@
         <v>8323</v>
       </c>
       <c r="B8323">
-        <v>579.1744012998288</v>
+        <v>579.1744012998287</v>
       </c>
     </row>
     <row r="8324" spans="1:2">
@@ -66967,7 +66967,7 @@
         <v>8328</v>
       </c>
       <c r="B8328">
-        <v>393.967191283364</v>
+        <v>393.9671912833639</v>
       </c>
     </row>
     <row r="8329" spans="1:2">
@@ -67031,7 +67031,7 @@
         <v>8336</v>
       </c>
       <c r="B8336">
-        <v>353.1894041924399</v>
+        <v>353.1894041924398</v>
       </c>
     </row>
     <row r="8337" spans="1:2">
@@ -67199,7 +67199,7 @@
         <v>8357</v>
       </c>
       <c r="B8357">
-        <v>380.6353897346594</v>
+        <v>380.6353897346593</v>
       </c>
     </row>
     <row r="8358" spans="1:2">
@@ -67239,7 +67239,7 @@
         <v>8362</v>
       </c>
       <c r="B8362">
-        <v>114.03470312783</v>
+        <v>114.0347031278299</v>
       </c>
     </row>
     <row r="8363" spans="1:2">
@@ -67263,7 +67263,7 @@
         <v>8365</v>
       </c>
       <c r="B8365">
-        <v>48.00072798846004</v>
+        <v>48.00072798846003</v>
       </c>
     </row>
     <row r="8366" spans="1:2">
@@ -67383,7 +67383,7 @@
         <v>8380</v>
       </c>
       <c r="B8380">
-        <v>362.6795133379561</v>
+        <v>362.679513337956</v>
       </c>
     </row>
     <row r="8381" spans="1:2">
@@ -67407,7 +67407,7 @@
         <v>8383</v>
       </c>
       <c r="B8383">
-        <v>401.389772172436</v>
+        <v>401.3897721724359</v>
       </c>
     </row>
     <row r="8384" spans="1:2">
@@ -67471,7 +67471,7 @@
         <v>8391</v>
       </c>
       <c r="B8391">
-        <v>38.32573497820431</v>
+        <v>38.3257349782043</v>
       </c>
     </row>
     <row r="8392" spans="1:2">
@@ -67479,7 +67479,7 @@
         <v>8392</v>
       </c>
       <c r="B8392">
-        <v>37.26704808885446</v>
+        <v>37.26704808885445</v>
       </c>
     </row>
     <row r="8393" spans="1:2">
@@ -67647,7 +67647,7 @@
         <v>8413</v>
       </c>
       <c r="B8413">
-        <v>126.9735960578429</v>
+        <v>126.9735960578428</v>
       </c>
     </row>
     <row r="8414" spans="1:2">
@@ -67679,7 +67679,7 @@
         <v>8417</v>
       </c>
       <c r="B8417">
-        <v>55.46937964480963</v>
+        <v>55.46937964480962</v>
       </c>
     </row>
     <row r="8418" spans="1:2">
@@ -67767,7 +67767,7 @@
         <v>8428</v>
       </c>
       <c r="B8428">
-        <v>258.3251224597336</v>
+        <v>258.3251224597335</v>
       </c>
     </row>
     <row r="8429" spans="1:2">
@@ -67839,7 +67839,7 @@
         <v>8437</v>
       </c>
       <c r="B8437">
-        <v>82.62811453919564</v>
+        <v>82.62811453919562</v>
       </c>
     </row>
     <row r="8438" spans="1:2">
@@ -67895,7 +67895,7 @@
         <v>8444</v>
       </c>
       <c r="B8444">
-        <v>85.29785688872269</v>
+        <v>85.29785688872268</v>
       </c>
     </row>
     <row r="8445" spans="1:2">
@@ -67903,7 +67903,7 @@
         <v>8445</v>
       </c>
       <c r="B8445">
-        <v>66.87602684765172</v>
+        <v>66.8760268476517</v>
       </c>
     </row>
     <row r="8446" spans="1:2">
@@ -68015,7 +68015,7 @@
         <v>8459</v>
       </c>
       <c r="B8459">
-        <v>126.8362219391808</v>
+        <v>126.8362219391807</v>
       </c>
     </row>
     <row r="8460" spans="1:2">
@@ -68055,7 +68055,7 @@
         <v>8464</v>
       </c>
       <c r="B8464">
-        <v>82.29798466769556</v>
+        <v>82.29798466769554</v>
       </c>
     </row>
     <row r="8465" spans="1:2">
@@ -68095,7 +68095,7 @@
         <v>8469</v>
       </c>
       <c r="B8469">
-        <v>155.9480232651514</v>
+        <v>155.9480232651513</v>
       </c>
     </row>
     <row r="8470" spans="1:2">
@@ -68167,7 +68167,7 @@
         <v>8478</v>
       </c>
       <c r="B8478">
-        <v>603.6284539154585</v>
+        <v>603.6284539154584</v>
       </c>
     </row>
     <row r="8479" spans="1:2">
@@ -68287,7 +68287,7 @@
         <v>8493</v>
       </c>
       <c r="B8493">
-        <v>230.5826955619081</v>
+        <v>230.582695561908</v>
       </c>
     </row>
     <row r="8494" spans="1:2">
@@ -68359,7 +68359,7 @@
         <v>8502</v>
       </c>
       <c r="B8502">
-        <v>734.4266446120943</v>
+        <v>734.426644612094</v>
       </c>
     </row>
     <row r="8503" spans="1:2">
@@ -68487,7 +68487,7 @@
         <v>8518</v>
       </c>
       <c r="B8518">
-        <v>297.3178431612753</v>
+        <v>297.3178431612752</v>
       </c>
     </row>
     <row r="8519" spans="1:2">
@@ -68527,7 +68527,7 @@
         <v>8523</v>
       </c>
       <c r="B8523">
-        <v>437.9082113229755</v>
+        <v>437.9082113229754</v>
       </c>
     </row>
     <row r="8524" spans="1:2">
@@ -68663,7 +68663,7 @@
         <v>8540</v>
       </c>
       <c r="B8540">
-        <v>420.4730342406618</v>
+        <v>420.4730342406617</v>
       </c>
     </row>
     <row r="8541" spans="1:2">
@@ -68679,7 +68679,7 @@
         <v>8542</v>
       </c>
       <c r="B8542">
-        <v>397.2481215611778</v>
+        <v>397.2481215611777</v>
       </c>
     </row>
     <row r="8543" spans="1:2">
@@ -68719,7 +68719,7 @@
         <v>8547</v>
       </c>
       <c r="B8547">
-        <v>581.0249104521442</v>
+        <v>581.0249104521441</v>
       </c>
     </row>
     <row r="8548" spans="1:2">
@@ -68887,7 +68887,7 @@
         <v>8568</v>
       </c>
       <c r="B8568">
-        <v>518.2515850747127</v>
+        <v>518.2515850747126</v>
       </c>
     </row>
     <row r="8569" spans="1:2">
@@ -68903,7 +68903,7 @@
         <v>8570</v>
       </c>
       <c r="B8570">
-        <v>568.7422387462187</v>
+        <v>568.7422387462186</v>
       </c>
     </row>
     <row r="8571" spans="1:2">
@@ -69039,7 +69039,7 @@
         <v>8587</v>
       </c>
       <c r="B8587">
-        <v>607.3046784102186</v>
+        <v>607.3046784102185</v>
       </c>
     </row>
     <row r="8588" spans="1:2">
@@ -69063,7 +69063,7 @@
         <v>8590</v>
       </c>
       <c r="B8590">
-        <v>356.073340441283</v>
+        <v>356.0733404412829</v>
       </c>
     </row>
     <row r="8591" spans="1:2">
@@ -69255,7 +69255,7 @@
         <v>8614</v>
       </c>
       <c r="B8614">
-        <v>313.3184580243144</v>
+        <v>313.3184580243143</v>
       </c>
     </row>
     <row r="8615" spans="1:2">
@@ -69415,7 +69415,7 @@
         <v>8634</v>
       </c>
       <c r="B8634">
-        <v>152.6501827884069</v>
+        <v>152.6501827884068</v>
       </c>
     </row>
     <row r="8635" spans="1:2">
@@ -69607,7 +69607,7 @@
         <v>8658</v>
       </c>
       <c r="B8658">
-        <v>52.95746777244324</v>
+        <v>52.95746777244323</v>
       </c>
     </row>
     <row r="8659" spans="1:2">
@@ -69615,7 +69615,7 @@
         <v>8659</v>
       </c>
       <c r="B8659">
-        <v>251.286874930762</v>
+        <v>251.2868749307619</v>
       </c>
     </row>
     <row r="8660" spans="1:2">
@@ -69711,7 +69711,7 @@
         <v>8671</v>
       </c>
       <c r="B8671">
-        <v>460.3058723816301</v>
+        <v>460.30587238163</v>
       </c>
     </row>
     <row r="8672" spans="1:2">
@@ -69887,7 +69887,7 @@
         <v>8693</v>
       </c>
       <c r="B8693">
-        <v>242.7759454325172</v>
+        <v>242.7759454325171</v>
       </c>
     </row>
     <row r="8694" spans="1:2">
@@ -69903,7 +69903,7 @@
         <v>8695</v>
       </c>
       <c r="B8695">
-        <v>253.7523350435006</v>
+        <v>253.7523350435005</v>
       </c>
     </row>
     <row r="8696" spans="1:2">
@@ -70031,7 +70031,7 @@
         <v>8711</v>
       </c>
       <c r="B8711">
-        <v>79.43623096576873</v>
+        <v>79.43623096576871</v>
       </c>
     </row>
     <row r="8712" spans="1:2">
@@ -70071,7 +70071,7 @@
         <v>8716</v>
       </c>
       <c r="B8716">
-        <v>189.6480568510924</v>
+        <v>189.6480568510923</v>
       </c>
     </row>
     <row r="8717" spans="1:2">
@@ -70095,7 +70095,7 @@
         <v>8719</v>
       </c>
       <c r="B8719">
-        <v>204.1562162418798</v>
+        <v>204.1562162418797</v>
       </c>
     </row>
     <row r="8720" spans="1:2">
@@ -70199,7 +70199,7 @@
         <v>8732</v>
       </c>
       <c r="B8732">
-        <v>9.765120560633173</v>
+        <v>9.765120560633171</v>
       </c>
     </row>
     <row r="8733" spans="1:2">
@@ -70375,7 +70375,7 @@
         <v>8754</v>
       </c>
       <c r="B8754">
-        <v>52.5372625172106</v>
+        <v>52.53726251721059</v>
       </c>
     </row>
     <row r="8755" spans="1:2">
